--- a/data/Classess_2024_biotech.xlsx
+++ b/data/Classess_2024_biotech.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <t>Family</t>
   </si>
@@ -215,6 +215,18 @@
   </si>
   <si>
     <t>st118860@student.spbu.ru</t>
+  </si>
+  <si>
+    <t>Крупинея</t>
+  </si>
+  <si>
+    <t>Ярослав</t>
+  </si>
+  <si>
+    <t>Константинович</t>
+  </si>
+  <si>
+    <t>st....</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1569,7 @@
   <dimension ref="A1:F122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -1821,11 +1833,21 @@
       <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
+      <c r="A15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6">
